--- a/data/pca/factorExposure/factorExposure_2014-07-21.xlsx
+++ b/data/pca/factorExposure/factorExposure_2014-07-21.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="113">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,21 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
+  </si>
+  <si>
+    <t>factor9</t>
+  </si>
+  <si>
+    <t>factor10</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +710,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:K104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:11">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,30 +732,60 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="B2">
-        <v>-0.005135195835147177</v>
+        <v>0.02049323529247975</v>
       </c>
       <c r="C2">
-        <v>0.1490438134672033</v>
+        <v>0.07162356102948919</v>
       </c>
       <c r="D2">
-        <v>0.03657267571323047</v>
+        <v>0.03327384821627091</v>
       </c>
       <c r="E2">
-        <v>-0.2346290084500571</v>
+        <v>0.0130822689838794</v>
       </c>
       <c r="F2">
-        <v>-0.06957966159384411</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.0121812379719621</v>
+      </c>
+      <c r="G2">
+        <v>-0.1557641977715411</v>
+      </c>
+      <c r="H2">
+        <v>0.002443567273021946</v>
+      </c>
+      <c r="I2">
+        <v>0.04710518565580804</v>
+      </c>
+      <c r="J2">
+        <v>0.1256669201411853</v>
+      </c>
+      <c r="K2">
+        <v>0.08015185972125201</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -757,30 +802,60 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6">
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B4">
-        <v>-0.01409741810498459</v>
+        <v>0.0216423258410972</v>
       </c>
       <c r="C4">
-        <v>0.1733945830413159</v>
+        <v>0.1404410954265447</v>
       </c>
       <c r="D4">
-        <v>0.0504635981511081</v>
+        <v>0.0643711736041461</v>
       </c>
       <c r="E4">
-        <v>-0.0300179414839373</v>
+        <v>0.009870298814922429</v>
       </c>
       <c r="F4">
-        <v>0.07354451931773838</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.05676440076113922</v>
+      </c>
+      <c r="G4">
+        <v>-0.03200786314164825</v>
+      </c>
+      <c r="H4">
+        <v>-0.01545663434619607</v>
+      </c>
+      <c r="I4">
+        <v>-0.03251605103673177</v>
+      </c>
+      <c r="J4">
+        <v>0.1008376068469693</v>
+      </c>
+      <c r="K4">
+        <v>0.01711137493306912</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,230 +872,410 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B6">
-        <v>-0.03844403359327311</v>
+        <v>0.04228426510086834</v>
       </c>
       <c r="C6">
-        <v>0.07158046516070686</v>
+        <v>0.08484391662070424</v>
       </c>
       <c r="D6">
-        <v>0.07499147396521978</v>
+        <v>0.02777555821853083</v>
       </c>
       <c r="E6">
-        <v>-0.02914686463187372</v>
+        <v>-0.02063605658373277</v>
       </c>
       <c r="F6">
-        <v>-0.007047222581217381</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.01997917463298582</v>
+      </c>
+      <c r="G6">
+        <v>-0.04459904579113371</v>
+      </c>
+      <c r="H6">
+        <v>-0.01272323699090912</v>
+      </c>
+      <c r="I6">
+        <v>-0.08133946013641193</v>
+      </c>
+      <c r="J6">
+        <v>0.001914578454129949</v>
+      </c>
+      <c r="K6">
+        <v>0.06880355487418181</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>-0.02033662354126248</v>
+        <v>0.02105406110981334</v>
       </c>
       <c r="C7">
-        <v>0.08015152218550339</v>
+        <v>0.07327140825409309</v>
       </c>
       <c r="D7">
-        <v>0.04651908230572642</v>
+        <v>0.03234974829226201</v>
       </c>
       <c r="E7">
-        <v>0.003942448699686926</v>
+        <v>-0.01826113300375832</v>
       </c>
       <c r="F7">
-        <v>-0.01521345004165043</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.004969631014419113</v>
+      </c>
+      <c r="G7">
+        <v>0.01738538849977541</v>
+      </c>
+      <c r="H7">
+        <v>-0.01759017417255187</v>
+      </c>
+      <c r="I7">
+        <v>-0.0176267501092097</v>
+      </c>
+      <c r="J7">
+        <v>0.1062740348925523</v>
+      </c>
+      <c r="K7">
+        <v>0.02000812952627719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B8">
-        <v>0.01263116846232685</v>
+        <v>0.002294076671424711</v>
       </c>
       <c r="C8">
-        <v>0.07147283265324569</v>
+        <v>0.06065919159456506</v>
       </c>
       <c r="D8">
-        <v>0.02167165062701154</v>
+        <v>0.04396395414466318</v>
       </c>
       <c r="E8">
-        <v>-0.08157243208957168</v>
+        <v>-0.03072023426978333</v>
       </c>
       <c r="F8">
-        <v>0.01499275736943976</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.02645507697879557</v>
+      </c>
+      <c r="G8">
+        <v>-0.06308433830472789</v>
+      </c>
+      <c r="H8">
+        <v>-0.04668277310935217</v>
+      </c>
+      <c r="I8">
+        <v>-0.02984657832487426</v>
+      </c>
+      <c r="J8">
+        <v>0.02540154358866883</v>
+      </c>
+      <c r="K8">
+        <v>-0.01411139683640241</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B9">
-        <v>-0.008852246245194026</v>
+        <v>0.01427084198091334</v>
       </c>
       <c r="C9">
-        <v>0.1201982223347415</v>
+        <v>0.09913372655211043</v>
       </c>
       <c r="D9">
-        <v>0.05792096392992966</v>
+        <v>0.04102172211821321</v>
       </c>
       <c r="E9">
-        <v>0.005414752660174959</v>
+        <v>0.02472148395003704</v>
       </c>
       <c r="F9">
-        <v>0.01134647952271943</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.0235514118958379</v>
+      </c>
+      <c r="G9">
+        <v>-0.02054826140683259</v>
+      </c>
+      <c r="H9">
+        <v>-0.03432429670652003</v>
+      </c>
+      <c r="I9">
+        <v>-0.01638624288798742</v>
+      </c>
+      <c r="J9">
+        <v>0.1058489867131312</v>
+      </c>
+      <c r="K9">
+        <v>0.02288272693558711</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>-0.2542771512164498</v>
+        <v>0.2422463526210346</v>
       </c>
       <c r="C10">
-        <v>-0.07901788728692105</v>
+        <v>-0.1032487989381</v>
       </c>
       <c r="D10">
-        <v>-0.03299010909738496</v>
+        <v>-0.008245191350862633</v>
       </c>
       <c r="E10">
-        <v>0.02217056628166213</v>
+        <v>-0.05186111981241513</v>
       </c>
       <c r="F10">
-        <v>0.04065225732547304</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.0005894639639225627</v>
+      </c>
+      <c r="G10">
+        <v>-0.02045015621734673</v>
+      </c>
+      <c r="H10">
+        <v>-0.01508147944576607</v>
+      </c>
+      <c r="I10">
+        <v>-0.05539241241739614</v>
+      </c>
+      <c r="J10">
+        <v>0.01603042968830715</v>
+      </c>
+      <c r="K10">
+        <v>-0.1495989607903644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>-0.00712856126506127</v>
+        <v>0.0187081242259236</v>
       </c>
       <c r="C11">
-        <v>0.06742133127700856</v>
+        <v>0.07886817545847309</v>
       </c>
       <c r="D11">
-        <v>0.03714426039684135</v>
+        <v>0.04214122690428442</v>
       </c>
       <c r="E11">
-        <v>0.03561050309213763</v>
+        <v>0.01344753879468029</v>
       </c>
       <c r="F11">
-        <v>0.003525374414762222</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.001469833265007698</v>
+      </c>
+      <c r="G11">
+        <v>0.01129098743907995</v>
+      </c>
+      <c r="H11">
+        <v>-0.01760734716646636</v>
+      </c>
+      <c r="I11">
+        <v>-0.004606058864202638</v>
+      </c>
+      <c r="J11">
+        <v>0.02707938429119907</v>
+      </c>
+      <c r="K11">
+        <v>0.0252141856640974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>-0.007608804259296237</v>
+        <v>0.01790036792052762</v>
       </c>
       <c r="C12">
-        <v>0.04569105391731787</v>
+        <v>0.05230540532044972</v>
       </c>
       <c r="D12">
-        <v>0.03799389793601451</v>
+        <v>0.02614425076873759</v>
       </c>
       <c r="E12">
-        <v>0.02939380490745926</v>
+        <v>0.006895544575930081</v>
       </c>
       <c r="F12">
-        <v>-0.01674075886061856</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01817400847530176</v>
+      </c>
+      <c r="G12">
+        <v>-0.0007496913435370335</v>
+      </c>
+      <c r="H12">
+        <v>-0.01011322351985203</v>
+      </c>
+      <c r="I12">
+        <v>-0.0251428460881321</v>
+      </c>
+      <c r="J12">
+        <v>0.02500172920005651</v>
+      </c>
+      <c r="K12">
+        <v>0.01107847842457312</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>-0.007469018721753636</v>
+        <v>0.007808568318842418</v>
       </c>
       <c r="C13">
-        <v>0.1140597556462182</v>
+        <v>0.1088280341670138</v>
       </c>
       <c r="D13">
-        <v>0.0575630393794178</v>
+        <v>0.04447597939269331</v>
       </c>
       <c r="E13">
-        <v>-0.06757244181297022</v>
+        <v>-0.001016159077081624</v>
       </c>
       <c r="F13">
-        <v>-0.08686154232698955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.03886362428603959</v>
+      </c>
+      <c r="G13">
+        <v>-0.1568307237602229</v>
+      </c>
+      <c r="H13">
+        <v>0.06317436442795459</v>
+      </c>
+      <c r="I13">
+        <v>-0.03877297357085297</v>
+      </c>
+      <c r="J13">
+        <v>0.2241934017222571</v>
+      </c>
+      <c r="K13">
+        <v>-0.2034652058867778</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>-0.01413305035142017</v>
+        <v>0.02228039846934209</v>
       </c>
       <c r="C14">
-        <v>0.08193871668795112</v>
+        <v>0.07262411948073159</v>
       </c>
       <c r="D14">
-        <v>0.05399138359564522</v>
+        <v>0.0459631203751248</v>
       </c>
       <c r="E14">
-        <v>0.0007945767908212499</v>
+        <v>-0.01471461913666817</v>
       </c>
       <c r="F14">
-        <v>-0.04041498200291425</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03597634832475557</v>
+      </c>
+      <c r="G14">
+        <v>-0.02305975035205847</v>
+      </c>
+      <c r="H14">
+        <v>-0.04751041604666652</v>
+      </c>
+      <c r="I14">
+        <v>-0.1044653925387379</v>
+      </c>
+      <c r="J14">
+        <v>0.18008116854632</v>
+      </c>
+      <c r="K14">
+        <v>-0.008711486389226437</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>-0.00472734757554175</v>
+        <v>0.004047567343547004</v>
       </c>
       <c r="C15">
-        <v>0.07733801266793526</v>
+        <v>0.07073405284825708</v>
       </c>
       <c r="D15">
-        <v>0.02929236830537731</v>
+        <v>0.0326568435750382</v>
       </c>
       <c r="E15">
-        <v>-0.01512255287579666</v>
+        <v>0.007431163720688435</v>
       </c>
       <c r="F15">
-        <v>0.00303791741596072</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
+        <v>0.03478880550310032</v>
+      </c>
+      <c r="G15">
+        <v>-0.01515559841110747</v>
+      </c>
+      <c r="H15">
+        <v>-0.03546648076966815</v>
+      </c>
+      <c r="I15">
+        <v>-0.04294801119847486</v>
+      </c>
+      <c r="J15">
+        <v>0.06729729649631697</v>
+      </c>
+      <c r="K15">
+        <v>0.01611482661274764</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>-0.008683246726309693</v>
+        <v>0.01747978959407714</v>
       </c>
       <c r="C16">
-        <v>0.05420537248874438</v>
+        <v>0.06011376160603976</v>
       </c>
       <c r="D16">
-        <v>0.029280971009019</v>
+        <v>0.02713613728059859</v>
       </c>
       <c r="E16">
-        <v>0.02385677245293159</v>
+        <v>0.006900516384445045</v>
       </c>
       <c r="F16">
-        <v>-0.003641462880241659</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.001033981166249831</v>
+      </c>
+      <c r="G16">
+        <v>0.006378047308681901</v>
+      </c>
+      <c r="H16">
+        <v>-0.008191179637567844</v>
+      </c>
+      <c r="I16">
+        <v>-0.007223547343880127</v>
+      </c>
+      <c r="J16">
+        <v>0.02220840237208473</v>
+      </c>
+      <c r="K16">
+        <v>0.0210966515176661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1292,25 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,10 +1327,25 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -1077,150 +1362,270 @@
       <c r="F19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:6">
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="B20">
-        <v>-0.01182211983275355</v>
+        <v>0.0169730293546085</v>
       </c>
       <c r="C20">
-        <v>0.09615006570895512</v>
+        <v>0.0850000610560159</v>
       </c>
       <c r="D20">
-        <v>0.04493846734559456</v>
+        <v>0.02775594680342204</v>
       </c>
       <c r="E20">
-        <v>0.05585209005490709</v>
+        <v>-0.0007209887772796733</v>
       </c>
       <c r="F20">
-        <v>-0.006749290472893648</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.01326346807093992</v>
+      </c>
+      <c r="G20">
+        <v>0.0207275114247408</v>
+      </c>
+      <c r="H20">
+        <v>-0.03909920096595033</v>
+      </c>
+      <c r="I20">
+        <v>-0.0434795983438849</v>
+      </c>
+      <c r="J20">
+        <v>0.05582136308578727</v>
+      </c>
+      <c r="K20">
+        <v>0.0151367716903175</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B21">
-        <v>-0.007729064768701059</v>
+        <v>0.01445269660139538</v>
       </c>
       <c r="C21">
-        <v>0.07754016608775016</v>
+        <v>0.06870478993434316</v>
       </c>
       <c r="D21">
-        <v>0.003833706823493702</v>
+        <v>0.01699161767873358</v>
       </c>
       <c r="E21">
-        <v>-0.02558970488270495</v>
+        <v>-0.02508249251057491</v>
       </c>
       <c r="F21">
-        <v>-0.09718059021732339</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07102563604207258</v>
+      </c>
+      <c r="G21">
+        <v>-0.06082993599134796</v>
+      </c>
+      <c r="H21">
+        <v>-0.04680633651306633</v>
+      </c>
+      <c r="I21">
+        <v>-0.03022009400290991</v>
+      </c>
+      <c r="J21">
+        <v>0.125839388982775</v>
+      </c>
+      <c r="K21">
+        <v>-0.02274008970455773</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="B22">
-        <v>0.002078875306916976</v>
+        <v>0.008549509632482811</v>
       </c>
       <c r="C22">
-        <v>0.2592525995707857</v>
+        <v>0.1672602049394073</v>
       </c>
       <c r="D22">
-        <v>-0.08596914919292024</v>
+        <v>0.01919469149175661</v>
       </c>
       <c r="E22">
-        <v>-0.3570546464379945</v>
+        <v>-0.02352174769279078</v>
       </c>
       <c r="F22">
-        <v>0.2606594960688652</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
+        <v>0.3392506346968222</v>
+      </c>
+      <c r="G22">
+        <v>-0.3994814315620612</v>
+      </c>
+      <c r="H22">
+        <v>0.2324495160419839</v>
+      </c>
+      <c r="I22">
+        <v>0.1177257046832157</v>
+      </c>
+      <c r="J22">
+        <v>-0.2319932115273645</v>
+      </c>
+      <c r="K22">
+        <v>-0.003559105770804995</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B23">
-        <v>0.001184352236412083</v>
+        <v>0.01369711125457292</v>
       </c>
       <c r="C23">
-        <v>0.2626097786568413</v>
+        <v>0.1703589739477879</v>
       </c>
       <c r="D23">
-        <v>-0.09078389545750036</v>
+        <v>0.01897226422680619</v>
       </c>
       <c r="E23">
-        <v>-0.3510745357258692</v>
+        <v>-0.02015347766319698</v>
       </c>
       <c r="F23">
-        <v>0.257668713941156</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
+        <v>0.3289115850997008</v>
+      </c>
+      <c r="G23">
+        <v>-0.389198674971909</v>
+      </c>
+      <c r="H23">
+        <v>0.2199418615554685</v>
+      </c>
+      <c r="I23">
+        <v>0.1128605867693796</v>
+      </c>
+      <c r="J23">
+        <v>-0.2136536236793169</v>
+      </c>
+      <c r="K23">
+        <v>0.001898354463243028</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="B24">
-        <v>-0.006394305395431897</v>
+        <v>0.01820530682193189</v>
       </c>
       <c r="C24">
-        <v>0.05996231813700824</v>
+        <v>0.06392732452793448</v>
       </c>
       <c r="D24">
-        <v>0.04838840391147035</v>
+        <v>0.0412059311610059</v>
       </c>
       <c r="E24">
-        <v>0.02945139326513766</v>
+        <v>0.01211073027872355</v>
       </c>
       <c r="F24">
-        <v>-0.0004787179445915389</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.000361415013046163</v>
+      </c>
+      <c r="G24">
+        <v>0.007586778751324252</v>
+      </c>
+      <c r="H24">
+        <v>-0.01284219700246376</v>
+      </c>
+      <c r="I24">
+        <v>-0.01745568680462768</v>
+      </c>
+      <c r="J24">
+        <v>0.03906097239855074</v>
+      </c>
+      <c r="K24">
+        <v>0.02203527285610447</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="B25">
-        <v>-0.007674006120446419</v>
+        <v>0.02311334759282678</v>
       </c>
       <c r="C25">
-        <v>0.06409534933455324</v>
+        <v>0.06803579096778825</v>
       </c>
       <c r="D25">
-        <v>0.02656041291520917</v>
+        <v>0.03446882004170114</v>
       </c>
       <c r="E25">
-        <v>0.03211774130661117</v>
+        <v>0.01789958302061518</v>
       </c>
       <c r="F25">
-        <v>-0.006830085757079237</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.003349747286022697</v>
+      </c>
+      <c r="G25">
+        <v>0.005629480194307739</v>
+      </c>
+      <c r="H25">
+        <v>-0.01646114268728428</v>
+      </c>
+      <c r="I25">
+        <v>-0.008896674908642847</v>
+      </c>
+      <c r="J25">
+        <v>0.03580619339921188</v>
+      </c>
+      <c r="K25">
+        <v>0.008789345084306012</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B26">
-        <v>-0.01219384596274543</v>
+        <v>0.02316956682032035</v>
       </c>
       <c r="C26">
-        <v>0.04603782461469006</v>
+        <v>0.05272498567606124</v>
       </c>
       <c r="D26">
-        <v>0.08483984988387627</v>
+        <v>0.06190782443325803</v>
       </c>
       <c r="E26">
-        <v>0.02317723149361802</v>
+        <v>0.007106197850491764</v>
       </c>
       <c r="F26">
-        <v>-0.03152461718297498</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.005517312856360933</v>
+      </c>
+      <c r="G26">
+        <v>0.01204271428728471</v>
+      </c>
+      <c r="H26">
+        <v>-0.0418434438346507</v>
+      </c>
+      <c r="I26">
+        <v>0.004792180325295786</v>
+      </c>
+      <c r="J26">
+        <v>0.1161125190834207</v>
+      </c>
+      <c r="K26">
+        <v>0.07374345908618522</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1237,190 +1642,340 @@
       <c r="F27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:6">
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="B28">
-        <v>-0.3439791770994659</v>
+        <v>0.3032158178938489</v>
       </c>
       <c r="C28">
-        <v>-0.1013809159769125</v>
+        <v>-0.1271700273500114</v>
       </c>
       <c r="D28">
-        <v>-0.03200448607833076</v>
+        <v>-0.03381410844264694</v>
       </c>
       <c r="E28">
-        <v>-0.000435670343311484</v>
+        <v>-0.01315824811906395</v>
       </c>
       <c r="F28">
-        <v>0.04151292359252462</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.01584234254185077</v>
+      </c>
+      <c r="G28">
+        <v>-0.0540655815641042</v>
+      </c>
+      <c r="H28">
+        <v>-0.06375768696354228</v>
+      </c>
+      <c r="I28">
+        <v>0.0801792057661322</v>
+      </c>
+      <c r="J28">
+        <v>0.02442404095418456</v>
+      </c>
+      <c r="K28">
+        <v>-0.2150856561817987</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="B29">
-        <v>-0.00817408598820445</v>
+        <v>0.01867617958652338</v>
       </c>
       <c r="C29">
-        <v>0.07684442729456444</v>
+        <v>0.08142648856643354</v>
       </c>
       <c r="D29">
-        <v>0.0571649118980889</v>
+        <v>0.04702503315818955</v>
       </c>
       <c r="E29">
-        <v>0.01896257226839531</v>
+        <v>0.01046896246588947</v>
       </c>
       <c r="F29">
-        <v>-0.03424337469509039</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03855754380891251</v>
+      </c>
+      <c r="G29">
+        <v>-0.0218487427980048</v>
+      </c>
+      <c r="H29">
+        <v>-0.05012321619973006</v>
+      </c>
+      <c r="I29">
+        <v>-0.1638034423795677</v>
+      </c>
+      <c r="J29">
+        <v>0.2511594236837514</v>
+      </c>
+      <c r="K29">
+        <v>-0.04340227571982358</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B30">
-        <v>-0.02339364745104493</v>
+        <v>0.03946376922134216</v>
       </c>
       <c r="C30">
-        <v>0.164367588320632</v>
+        <v>0.1453491145488211</v>
       </c>
       <c r="D30">
-        <v>0.06484687368683455</v>
+        <v>0.05408611915096211</v>
       </c>
       <c r="E30">
-        <v>-0.03353199535800799</v>
+        <v>0.005552363367768825</v>
       </c>
       <c r="F30">
-        <v>0.01886672770754956</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.03918105787727257</v>
+      </c>
+      <c r="G30">
+        <v>-0.03195122797661425</v>
+      </c>
+      <c r="H30">
+        <v>-0.02768806966961298</v>
+      </c>
+      <c r="I30">
+        <v>-0.04980791518726103</v>
+      </c>
+      <c r="J30">
+        <v>0.03316567696843682</v>
+      </c>
+      <c r="K30">
+        <v>0.07367605629919853</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="B31">
-        <v>0.00247511450407215</v>
+        <v>0.01607576822254457</v>
       </c>
       <c r="C31">
-        <v>0.05414010905531441</v>
+        <v>0.07540520947651733</v>
       </c>
       <c r="D31">
-        <v>0.03624599491423228</v>
+        <v>0.04228144171015458</v>
       </c>
       <c r="E31">
-        <v>0.00989737158087128</v>
+        <v>-0.0007036731066430116</v>
       </c>
       <c r="F31">
-        <v>0.00345341028901599</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.01063304050389316</v>
+      </c>
+      <c r="G31">
+        <v>-0.007054641342903963</v>
+      </c>
+      <c r="H31">
+        <v>-0.03439216457047947</v>
+      </c>
+      <c r="I31">
+        <v>0.007791167800125877</v>
+      </c>
+      <c r="J31">
+        <v>0.03248949230045339</v>
+      </c>
+      <c r="K31">
+        <v>0.009600632402190383</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="B32">
-        <v>-0.0114086133447923</v>
+        <v>0.02112616965510751</v>
       </c>
       <c r="C32">
-        <v>0.07995020412306336</v>
+        <v>0.04776750546937974</v>
       </c>
       <c r="D32">
-        <v>0.0181474313605496</v>
+        <v>0.02822977052317808</v>
       </c>
       <c r="E32">
-        <v>-0.1615867052656177</v>
+        <v>0.003265110503696201</v>
       </c>
       <c r="F32">
-        <v>-0.009338004179719434</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.0001795481561997929</v>
+      </c>
+      <c r="G32">
+        <v>-0.1091052789702561</v>
+      </c>
+      <c r="H32">
+        <v>0.02259617023022963</v>
+      </c>
+      <c r="I32">
+        <v>-0.04723332109475571</v>
+      </c>
+      <c r="J32">
+        <v>0.1738156043035987</v>
+      </c>
+      <c r="K32">
+        <v>-0.2635344747959737</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B33">
-        <v>-0.009713983595530737</v>
+        <v>0.01835848243983757</v>
       </c>
       <c r="C33">
-        <v>0.09366315949366247</v>
+        <v>0.1008060507972406</v>
       </c>
       <c r="D33">
-        <v>0.06362172173030615</v>
+        <v>0.05163659412361746</v>
       </c>
       <c r="E33">
-        <v>0.0214641834382584</v>
+        <v>-0.002245440736211237</v>
       </c>
       <c r="F33">
-        <v>-0.005674025304023246</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.01799098902994239</v>
+      </c>
+      <c r="G33">
+        <v>-0.01341230633430343</v>
+      </c>
+      <c r="H33">
+        <v>-0.008526914182611272</v>
+      </c>
+      <c r="I33">
+        <v>-0.02884177511552345</v>
+      </c>
+      <c r="J33">
+        <v>0.05954000395882974</v>
+      </c>
+      <c r="K33">
+        <v>-0.01827412454509767</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="B34">
-        <v>-0.005167011710547153</v>
+        <v>0.01828177127874925</v>
       </c>
       <c r="C34">
-        <v>0.04687404711702071</v>
+        <v>0.04966297914658197</v>
       </c>
       <c r="D34">
-        <v>0.02467228947680956</v>
+        <v>0.02173327911716633</v>
       </c>
       <c r="E34">
-        <v>0.01527217080083612</v>
+        <v>0.01598871851682739</v>
       </c>
       <c r="F34">
-        <v>-0.0229262269676508</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.006937049520051204</v>
+      </c>
+      <c r="G34">
+        <v>0.006666437550203841</v>
+      </c>
+      <c r="H34">
+        <v>-0.01273489588503227</v>
+      </c>
+      <c r="I34">
+        <v>-0.02825197212380043</v>
+      </c>
+      <c r="J34">
+        <v>-0.00344333280310111</v>
+      </c>
+      <c r="K34">
+        <v>0.01185684352185054</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="B35">
-        <v>-0.002718221462044082</v>
+        <v>0.01260261274700441</v>
       </c>
       <c r="C35">
-        <v>0.03055732388788971</v>
+        <v>0.0499830835931232</v>
       </c>
       <c r="D35">
-        <v>0.0160920263471629</v>
+        <v>0.02358280992105085</v>
       </c>
       <c r="E35">
-        <v>0.007495520678346322</v>
+        <v>-0.003845174568797291</v>
       </c>
       <c r="F35">
-        <v>-0.01218360822945332</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6">
+        <v>-0.005224116333233354</v>
+      </c>
+      <c r="G35">
+        <v>-0.01108812729665147</v>
+      </c>
+      <c r="H35">
+        <v>-0.05400763831633456</v>
+      </c>
+      <c r="I35">
+        <v>-0.07442724664768349</v>
+      </c>
+      <c r="J35">
+        <v>0.122771084603576</v>
+      </c>
+      <c r="K35">
+        <v>-0.04105501200392848</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="B36">
-        <v>-0.008694495800052146</v>
+        <v>0.01443445319592786</v>
       </c>
       <c r="C36">
-        <v>0.0456932389812801</v>
+        <v>0.04486047700408531</v>
       </c>
       <c r="D36">
-        <v>0.0521600120057351</v>
+        <v>0.03965880564823235</v>
       </c>
       <c r="E36">
-        <v>0.01603840610731479</v>
+        <v>-0.007334426696613885</v>
       </c>
       <c r="F36">
-        <v>-0.006740973608775441</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.01161124564814052</v>
+      </c>
+      <c r="G36">
+        <v>-0.01086136867914846</v>
+      </c>
+      <c r="H36">
+        <v>-0.02867125282424944</v>
+      </c>
+      <c r="I36">
+        <v>-0.000402088177877717</v>
+      </c>
+      <c r="J36">
+        <v>0.08863810586298579</v>
+      </c>
+      <c r="K36">
+        <v>0.02455417482544905</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,90 +1992,165 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+      <c r="J37">
+        <v>0</v>
+      </c>
+      <c r="K37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B38">
-        <v>-0.02724095657522846</v>
+        <v>0.01143421222975688</v>
       </c>
       <c r="C38">
-        <v>0.04361666449804878</v>
+        <v>0.05779256001002993</v>
       </c>
       <c r="D38">
-        <v>0.03821585017781492</v>
+        <v>0.03803386783272866</v>
       </c>
       <c r="E38">
-        <v>0.02763657955693059</v>
+        <v>-0.03117798306185475</v>
       </c>
       <c r="F38">
-        <v>-0.0003551513495848342</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.03438562150538322</v>
+      </c>
+      <c r="G38">
+        <v>0.0006072990759131859</v>
+      </c>
+      <c r="H38">
+        <v>-0.0188274459860991</v>
+      </c>
+      <c r="I38">
+        <v>-0.03634756062430793</v>
+      </c>
+      <c r="J38">
+        <v>0.0751644281220353</v>
+      </c>
+      <c r="K38">
+        <v>-0.07086108159609346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="B39">
-        <v>-0.005369972527473358</v>
+        <v>0.02713452224682914</v>
       </c>
       <c r="C39">
-        <v>0.1232352588016555</v>
+        <v>0.1291207677401177</v>
       </c>
       <c r="D39">
-        <v>0.0637912961344346</v>
+        <v>0.05974430338151663</v>
       </c>
       <c r="E39">
-        <v>0.0203895661448494</v>
+        <v>0.004569899091058567</v>
       </c>
       <c r="F39">
-        <v>-0.03148877265531498</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.01348432143428886</v>
+      </c>
+      <c r="G39">
+        <v>0.00854810388980662</v>
+      </c>
+      <c r="H39">
+        <v>-0.02268473116555431</v>
+      </c>
+      <c r="I39">
+        <v>-0.06092069536824348</v>
+      </c>
+      <c r="J39">
+        <v>0.02509462695241782</v>
+      </c>
+      <c r="K39">
+        <v>0.09930051265485836</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="B40">
-        <v>-0.0163181647893107</v>
+        <v>0.02370649147711531</v>
       </c>
       <c r="C40">
-        <v>0.05267218224598775</v>
+        <v>0.07875997447087021</v>
       </c>
       <c r="D40">
-        <v>0.02460536104387151</v>
+        <v>0.03916656275485549</v>
       </c>
       <c r="E40">
-        <v>-0.02425337557227741</v>
+        <v>0.007238988346371769</v>
       </c>
       <c r="F40">
-        <v>0.02290393391704028</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.008785408637823107</v>
+      </c>
+      <c r="G40">
+        <v>-0.02714719187774031</v>
+      </c>
+      <c r="H40">
+        <v>0.03114734715635548</v>
+      </c>
+      <c r="I40">
+        <v>-0.0991939942546998</v>
+      </c>
+      <c r="J40">
+        <v>0.07111377392518345</v>
+      </c>
+      <c r="K40">
+        <v>-0.04888319212747055</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="B41">
-        <v>-0.01218191390048854</v>
+        <v>0.02309758350173979</v>
       </c>
       <c r="C41">
-        <v>0.02425012362780407</v>
+        <v>0.0454000415976081</v>
       </c>
       <c r="D41">
-        <v>0.003683452592188692</v>
+        <v>0.01510361876427241</v>
       </c>
       <c r="E41">
-        <v>0.01412997667963565</v>
+        <v>0.0004474941580817323</v>
       </c>
       <c r="F41">
-        <v>0.001182871398820422</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.004481256906167729</v>
+      </c>
+      <c r="G41">
+        <v>0.01163026906403481</v>
+      </c>
+      <c r="H41">
+        <v>-0.006178803015462685</v>
+      </c>
+      <c r="I41">
+        <v>0.003934493502411725</v>
+      </c>
+      <c r="J41">
+        <v>0.02941891143252923</v>
+      </c>
+      <c r="K41">
+        <v>-0.03206818098682753</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1537,50 +2167,95 @@
       <c r="F42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:6">
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+      <c r="I42">
+        <v>0</v>
+      </c>
+      <c r="J42">
+        <v>0</v>
+      </c>
+      <c r="K42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="B43">
-        <v>-0.006476912537719121</v>
+        <v>0.02082480655320483</v>
       </c>
       <c r="C43">
-        <v>0.02571803033264627</v>
+        <v>0.04587297408129846</v>
       </c>
       <c r="D43">
-        <v>0.02454393820850535</v>
+        <v>0.0273506543984108</v>
       </c>
       <c r="E43">
-        <v>0.008100945135207831</v>
+        <v>0.001067577333543312</v>
       </c>
       <c r="F43">
-        <v>0.00556103668079632</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.00841006915474405</v>
+      </c>
+      <c r="G43">
+        <v>0.01049491481228721</v>
+      </c>
+      <c r="H43">
+        <v>-0.01301761628323066</v>
+      </c>
+      <c r="I43">
+        <v>-0.007115194686201917</v>
+      </c>
+      <c r="J43">
+        <v>0.03955276396390679</v>
+      </c>
+      <c r="K43">
+        <v>-0.002456075493850061</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="B44">
-        <v>-0.01068375887866278</v>
+        <v>0.01940954462550364</v>
       </c>
       <c r="C44">
-        <v>0.1096502941823206</v>
+        <v>0.09889794963248619</v>
       </c>
       <c r="D44">
-        <v>0.04836373628446863</v>
+        <v>0.06366571123210787</v>
       </c>
       <c r="E44">
-        <v>-0.03480696857851077</v>
+        <v>-0.01329762831908522</v>
       </c>
       <c r="F44">
-        <v>0.03128259934897967</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.0536218861530523</v>
+      </c>
+      <c r="G44">
+        <v>-0.03688980394234315</v>
+      </c>
+      <c r="H44">
+        <v>0.01098188516563613</v>
+      </c>
+      <c r="I44">
+        <v>-0.04532875803225792</v>
+      </c>
+      <c r="J44">
+        <v>0.05554120369148226</v>
+      </c>
+      <c r="K44">
+        <v>0.07763910078654927</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,130 +2272,235 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+      <c r="J45">
+        <v>0</v>
+      </c>
+      <c r="K45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="B46">
-        <v>0.004583458171349555</v>
+        <v>0.007347875069782721</v>
       </c>
       <c r="C46">
-        <v>0.06932548948278089</v>
+        <v>0.06909720145540535</v>
       </c>
       <c r="D46">
-        <v>0.06820150354157314</v>
+        <v>0.02678487407696432</v>
       </c>
       <c r="E46">
-        <v>0.001536650788751437</v>
+        <v>-0.01953254831919474</v>
       </c>
       <c r="F46">
-        <v>-0.01529469296559072</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.01771756242530135</v>
+      </c>
+      <c r="G46">
+        <v>0.004763437558715776</v>
+      </c>
+      <c r="H46">
+        <v>-0.01129002374528432</v>
+      </c>
+      <c r="I46">
+        <v>-0.01697429598321444</v>
+      </c>
+      <c r="J46">
+        <v>0.09751768512807797</v>
+      </c>
+      <c r="K46">
+        <v>0.0009612665925839024</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="B47">
-        <v>-0.009324863627443929</v>
+        <v>0.02168685271491812</v>
       </c>
       <c r="C47">
-        <v>0.05741324969895985</v>
+        <v>0.06810974341751354</v>
       </c>
       <c r="D47">
-        <v>0.04427559111310825</v>
+        <v>0.04629664761725848</v>
       </c>
       <c r="E47">
-        <v>0.03358424054804903</v>
+        <v>0.01093229843234413</v>
       </c>
       <c r="F47">
-        <v>-0.03950426111793635</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.004049126714737468</v>
+      </c>
+      <c r="G47">
+        <v>0.005317557880668011</v>
+      </c>
+      <c r="H47">
+        <v>-0.02241653950680112</v>
+      </c>
+      <c r="I47">
+        <v>-0.007576950037152515</v>
+      </c>
+      <c r="J47">
+        <v>0.06891548813911606</v>
+      </c>
+      <c r="K47">
+        <v>-0.02355375438791906</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="B48">
-        <v>-0.01076574952339451</v>
+        <v>0.01784884827651858</v>
       </c>
       <c r="C48">
-        <v>0.05341978610545266</v>
+        <v>0.04777308860690462</v>
       </c>
       <c r="D48">
-        <v>0.07333734112974562</v>
+        <v>0.05446633400215567</v>
       </c>
       <c r="E48">
-        <v>0.03180774881509322</v>
+        <v>0.01539636529048744</v>
       </c>
       <c r="F48">
-        <v>-0.009754131549712729</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.01815846507210968</v>
+      </c>
+      <c r="G48">
+        <v>-0.005418607916934586</v>
+      </c>
+      <c r="H48">
+        <v>-0.04684997252645851</v>
+      </c>
+      <c r="I48">
+        <v>0.01060381246237093</v>
+      </c>
+      <c r="J48">
+        <v>0.1159452863663298</v>
+      </c>
+      <c r="K48">
+        <v>0.05271496594736676</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="B49">
-        <v>0</v>
+        <v>0.02695606851880879</v>
       </c>
       <c r="C49">
-        <v>0</v>
+        <v>0.05943202455010873</v>
       </c>
       <c r="D49">
-        <v>0</v>
+        <v>0.01858223812901441</v>
       </c>
       <c r="E49">
-        <v>0</v>
+        <v>0.04221083363750052</v>
       </c>
       <c r="F49">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:6">
+        <v>-0.03417181370084885</v>
+      </c>
+      <c r="G49">
+        <v>0.06490837800736365</v>
+      </c>
+      <c r="H49">
+        <v>-0.02690607546311038</v>
+      </c>
+      <c r="I49">
+        <v>-0.0939337658545461</v>
+      </c>
+      <c r="J49">
+        <v>-0.1080783175854123</v>
+      </c>
+      <c r="K49">
+        <v>0.05727522787700075</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="B50">
-        <v>0.003213223177037272</v>
+        <v>0.01655862984673533</v>
       </c>
       <c r="C50">
-        <v>0.05749630197860948</v>
+        <v>0.07278450004647295</v>
       </c>
       <c r="D50">
-        <v>0.03602501447015168</v>
+        <v>0.03203658636933635</v>
       </c>
       <c r="E50">
-        <v>-0.004378508262994457</v>
+        <v>0.008581537269969722</v>
       </c>
       <c r="F50">
-        <v>0.0110589334171123</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.02054119179110052</v>
+      </c>
+      <c r="G50">
+        <v>-0.006822581882869286</v>
+      </c>
+      <c r="H50">
+        <v>-0.03649248536524516</v>
+      </c>
+      <c r="I50">
+        <v>-0.02122314076185678</v>
+      </c>
+      <c r="J50">
+        <v>0.05247618911333275</v>
+      </c>
+      <c r="K50">
+        <v>-0.04705609247550951</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B51">
-        <v>-0.002220568128172472</v>
+        <v>-0.004608362041873049</v>
       </c>
       <c r="C51">
-        <v>0.07373754120410671</v>
+        <v>0.03552445774430082</v>
       </c>
       <c r="D51">
-        <v>0.04065080066815224</v>
+        <v>0.02408118266039783</v>
       </c>
       <c r="E51">
-        <v>-0.03028806011143804</v>
+        <v>-0.01953933759773119</v>
       </c>
       <c r="F51">
-        <v>0.00951289960227277</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.007168000728301367</v>
+      </c>
+      <c r="G51">
+        <v>-0.01996083536993608</v>
+      </c>
+      <c r="H51">
+        <v>-0.01943737861684509</v>
+      </c>
+      <c r="I51">
+        <v>-0.02866704828262715</v>
+      </c>
+      <c r="J51">
+        <v>0.1085549397137816</v>
+      </c>
+      <c r="K51">
+        <v>0.04239926230667483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,90 +2517,165 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+      <c r="J52">
+        <v>0</v>
+      </c>
+      <c r="K52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B53">
-        <v>-0.03136909129443861</v>
+        <v>0.06355421180796207</v>
       </c>
       <c r="C53">
-        <v>0.1036563445949771</v>
+        <v>0.128023456674226</v>
       </c>
       <c r="D53">
-        <v>0.05719277666409413</v>
+        <v>0.05842468890695014</v>
       </c>
       <c r="E53">
-        <v>0.08792951501658655</v>
+        <v>0.01438062540346334</v>
       </c>
       <c r="F53">
-        <v>0.0008691242542524199</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.04553233594886488</v>
+      </c>
+      <c r="G53">
+        <v>0.03889666034945895</v>
+      </c>
+      <c r="H53">
+        <v>-0.03988099365900241</v>
+      </c>
+      <c r="I53">
+        <v>0.08647903602583464</v>
+      </c>
+      <c r="J53">
+        <v>-0.04408897214543556</v>
+      </c>
+      <c r="K53">
+        <v>-0.02957815195991799</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="B54">
-        <v>-0.005958556003881251</v>
+        <v>0.01755263880380562</v>
       </c>
       <c r="C54">
-        <v>0.07251576911095679</v>
+        <v>0.0699916160058628</v>
       </c>
       <c r="D54">
-        <v>0.02107445623748243</v>
+        <v>0.01080796742673523</v>
       </c>
       <c r="E54">
-        <v>0.0407378617407892</v>
+        <v>0.004128941258833528</v>
       </c>
       <c r="F54">
-        <v>0.004581829992108344</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.001387967226618858</v>
+      </c>
+      <c r="G54">
+        <v>0.002315319531459093</v>
+      </c>
+      <c r="H54">
+        <v>-0.009866588040930524</v>
+      </c>
+      <c r="I54">
+        <v>-0.01030915603723303</v>
+      </c>
+      <c r="J54">
+        <v>0.06008351757751861</v>
+      </c>
+      <c r="K54">
+        <v>0.02661350420977606</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="B55">
-        <v>-0.01522581320855463</v>
+        <v>0.03239515597332715</v>
       </c>
       <c r="C55">
-        <v>0.05521147631632974</v>
+        <v>0.08048701051851663</v>
       </c>
       <c r="D55">
-        <v>0.05724688103184345</v>
+        <v>0.05393097267712127</v>
       </c>
       <c r="E55">
-        <v>0.05960896956229927</v>
+        <v>0.01597083438431416</v>
       </c>
       <c r="F55">
-        <v>-0.02676077315642124</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.02755281925879567</v>
+      </c>
+      <c r="G55">
+        <v>0.02846791773532799</v>
+      </c>
+      <c r="H55">
+        <v>-0.01459073780703284</v>
+      </c>
+      <c r="I55">
+        <v>0.03928676069871409</v>
+      </c>
+      <c r="J55">
+        <v>-0.00590070993749719</v>
+      </c>
+      <c r="K55">
+        <v>0.006121188295335289</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="B56">
-        <v>-0.01257102847871231</v>
+        <v>0.05756119605558441</v>
       </c>
       <c r="C56">
-        <v>0.1362440522984879</v>
+        <v>0.1589587076372265</v>
       </c>
       <c r="D56">
-        <v>0.06398833501109299</v>
+        <v>0.08582216139059608</v>
       </c>
       <c r="E56">
-        <v>0.05468212946497819</v>
+        <v>0.03127083962967807</v>
       </c>
       <c r="F56">
-        <v>-0.02008751997030759</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09730428834259983</v>
+      </c>
+      <c r="G56">
+        <v>0.0550948136837551</v>
+      </c>
+      <c r="H56">
+        <v>-0.08850344218313884</v>
+      </c>
+      <c r="I56">
+        <v>0.1640530758047397</v>
+      </c>
+      <c r="J56">
+        <v>-0.08028412788381284</v>
+      </c>
+      <c r="K56">
+        <v>-0.008415597836524878</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1837,250 +2692,445 @@
       <c r="F57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:6">
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+      <c r="I57">
+        <v>0</v>
+      </c>
+      <c r="J57">
+        <v>0</v>
+      </c>
+      <c r="K57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="B58">
-        <v>-0.02143977922487962</v>
+        <v>0.01777409902567701</v>
       </c>
       <c r="C58">
-        <v>0.2750340824178092</v>
+        <v>0.1659618481343116</v>
       </c>
       <c r="D58">
-        <v>-0.021101847828203</v>
+        <v>0.04290844438801759</v>
       </c>
       <c r="E58">
-        <v>-0.1866760336986102</v>
+        <v>-0.08029199666039546</v>
       </c>
       <c r="F58">
-        <v>0.160472975620383</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.2074850364224969</v>
+      </c>
+      <c r="G58">
+        <v>-0.265787416612582</v>
+      </c>
+      <c r="H58">
+        <v>-0.01390632068647236</v>
+      </c>
+      <c r="I58">
+        <v>0.0282827525029396</v>
+      </c>
+      <c r="J58">
+        <v>0.1640757743584528</v>
+      </c>
+      <c r="K58">
+        <v>0.04200307866853917</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="B59">
-        <v>-0.2911125563951986</v>
+        <v>0.2862326280012918</v>
       </c>
       <c r="C59">
-        <v>-0.001898884240997393</v>
+        <v>-0.06080216328428447</v>
       </c>
       <c r="D59">
-        <v>-0.01719168087760216</v>
+        <v>-0.01022021381095927</v>
       </c>
       <c r="E59">
-        <v>-0.06072566262986232</v>
+        <v>-0.009993805458395932</v>
       </c>
       <c r="F59">
-        <v>-0.04326608769489777</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.01170892634066632</v>
+      </c>
+      <c r="G59">
+        <v>-0.06091203338631474</v>
+      </c>
+      <c r="H59">
+        <v>0.02396441352317018</v>
+      </c>
+      <c r="I59">
+        <v>0.01061870992459503</v>
+      </c>
+      <c r="J59">
+        <v>-0.005315211419779761</v>
+      </c>
+      <c r="K59">
+        <v>-0.03602281971826259</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="B60">
-        <v>-0.1284532837129268</v>
+        <v>0.15974935640347</v>
       </c>
       <c r="C60">
-        <v>0.147095244193849</v>
+        <v>0.1604175028401333</v>
       </c>
       <c r="D60">
-        <v>0.07215041649756597</v>
+        <v>0.03367640164691556</v>
       </c>
       <c r="E60">
-        <v>0.1414021395454382</v>
+        <v>0.07994369349041859</v>
       </c>
       <c r="F60">
-        <v>-0.2441848160548107</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.1152246182483267</v>
+      </c>
+      <c r="G60">
+        <v>0.1091261801608476</v>
+      </c>
+      <c r="H60">
+        <v>0.2820792405182129</v>
+      </c>
+      <c r="I60">
+        <v>-0.09695865587342281</v>
+      </c>
+      <c r="J60">
+        <v>-0.1224218737170847</v>
+      </c>
+      <c r="K60">
+        <v>0.05326870972764884</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B61">
-        <v>-0.006678650480841117</v>
+        <v>0.02772115754235623</v>
       </c>
       <c r="C61">
-        <v>0.0870495685692303</v>
+        <v>0.09928350815065536</v>
       </c>
       <c r="D61">
-        <v>0.07701224176189672</v>
+        <v>0.05509234061621319</v>
       </c>
       <c r="E61">
-        <v>0.04449292044899593</v>
+        <v>0.01366770442659555</v>
       </c>
       <c r="F61">
-        <v>-0.03599385672136343</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.01574076460092754</v>
+      </c>
+      <c r="G61">
+        <v>0.02552600432906111</v>
+      </c>
+      <c r="H61">
+        <v>-0.0327172836819272</v>
+      </c>
+      <c r="I61">
+        <v>-0.04282606371652808</v>
+      </c>
+      <c r="J61">
+        <v>0.02985985002774444</v>
+      </c>
+      <c r="K61">
+        <v>0.03244982686986249</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="B62">
-        <v>0</v>
+        <v>-0.001982398831987247</v>
       </c>
       <c r="C62">
-        <v>0</v>
+        <v>0.01577220547296146</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>0.005063814960301258</v>
       </c>
       <c r="E62">
-        <v>0</v>
+        <v>0.03011510384057119</v>
       </c>
       <c r="F62">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>0.02197190316311599</v>
+      </c>
+      <c r="G62">
+        <v>-0.007324536395025181</v>
+      </c>
+      <c r="H62">
+        <v>-0.0003217906121304111</v>
+      </c>
+      <c r="I62">
+        <v>-0.02496972101576816</v>
+      </c>
+      <c r="J62">
+        <v>0.0149031193556907</v>
+      </c>
+      <c r="K62">
+        <v>-0.007025815423842237</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="B63">
-        <v>-0.0009950016162755568</v>
+        <v>0.02762819587909492</v>
       </c>
       <c r="C63">
-        <v>0.05291894249964211</v>
+        <v>0.06205513434944632</v>
       </c>
       <c r="D63">
-        <v>0.04737074673786162</v>
+        <v>0.06044326061176779</v>
       </c>
       <c r="E63">
-        <v>0.01125293941060064</v>
+        <v>0.006375612664237935</v>
       </c>
       <c r="F63">
-        <v>0.004606828909945691</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.009622024549352081</v>
+      </c>
+      <c r="G63">
+        <v>0.00507704166556315</v>
+      </c>
+      <c r="H63">
+        <v>-0.04203288245425286</v>
+      </c>
+      <c r="I63">
+        <v>-0.01453727323468467</v>
+      </c>
+      <c r="J63">
+        <v>0.04678898519933009</v>
+      </c>
+      <c r="K63">
+        <v>0.01518797838378824</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B64">
-        <v>0.002900900407186755</v>
+        <v>0.01568672861646604</v>
       </c>
       <c r="C64">
-        <v>0.09221404711443952</v>
+        <v>0.08533907170624459</v>
       </c>
       <c r="D64">
-        <v>0.08437989593403465</v>
+        <v>0.03146736953745732</v>
       </c>
       <c r="E64">
-        <v>0.04464216735147732</v>
+        <v>0.007851496466973315</v>
       </c>
       <c r="F64">
-        <v>0.003047400516205616</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.03717139332996789</v>
+      </c>
+      <c r="G64">
+        <v>-0.007609469718963989</v>
+      </c>
+      <c r="H64">
+        <v>0.03203926705594591</v>
+      </c>
+      <c r="I64">
+        <v>-0.03087471803157442</v>
+      </c>
+      <c r="J64">
+        <v>0.04398634739233817</v>
+      </c>
+      <c r="K64">
+        <v>0.06804166735061269</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="B65">
-        <v>-0.0227999267222584</v>
+        <v>0.0341659325513783</v>
       </c>
       <c r="C65">
-        <v>0.09886035709808594</v>
+        <v>0.091276902631912</v>
       </c>
       <c r="D65">
-        <v>0.06485767988615121</v>
+        <v>0.02072567330862993</v>
       </c>
       <c r="E65">
-        <v>0.04907566024218719</v>
+        <v>-0.01778264026141972</v>
       </c>
       <c r="F65">
-        <v>-0.01503472668969382</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.003707661581570184</v>
+      </c>
+      <c r="G65">
+        <v>0.01371887409335881</v>
+      </c>
+      <c r="H65">
+        <v>0.05208675568472457</v>
+      </c>
+      <c r="I65">
+        <v>-0.06091688766825602</v>
+      </c>
+      <c r="J65">
+        <v>0.01722266242495649</v>
+      </c>
+      <c r="K65">
+        <v>0.1044507400071065</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="B66">
-        <v>0.002473818189248561</v>
+        <v>0.02659525163416765</v>
       </c>
       <c r="C66">
-        <v>0.1756128292484823</v>
+        <v>0.1734747701714568</v>
       </c>
       <c r="D66">
-        <v>0.05102352534476908</v>
+        <v>0.05460997956539035</v>
       </c>
       <c r="E66">
-        <v>0.002526157668559654</v>
+        <v>-0.001048695976466639</v>
       </c>
       <c r="F66">
-        <v>-0.03751117641713199</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.01520112731347725</v>
+      </c>
+      <c r="G66">
+        <v>-0.00359437112991483</v>
+      </c>
+      <c r="H66">
+        <v>-0.04312901821320649</v>
+      </c>
+      <c r="I66">
+        <v>-0.05754329608691165</v>
+      </c>
+      <c r="J66">
+        <v>0.03185275154258359</v>
+      </c>
+      <c r="K66">
+        <v>0.07599078584261176</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B67">
-        <v>-0.02992352554988632</v>
+        <v>0.02106959060111429</v>
       </c>
       <c r="C67">
-        <v>0.01893187581230362</v>
+        <v>0.05044073756485917</v>
       </c>
       <c r="D67">
-        <v>0.05239365180264467</v>
+        <v>0.03883359410489795</v>
       </c>
       <c r="E67">
-        <v>0.05987950450864585</v>
+        <v>-0.02854591046607844</v>
       </c>
       <c r="F67">
-        <v>-0.01930677232263507</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.01057266520258332</v>
+      </c>
+      <c r="G67">
+        <v>0.0269049940353858</v>
+      </c>
+      <c r="H67">
+        <v>0.01922558811953358</v>
+      </c>
+      <c r="I67">
+        <v>-0.03724121197182555</v>
+      </c>
+      <c r="J67">
+        <v>0.06870196281834808</v>
+      </c>
+      <c r="K67">
+        <v>-0.05811317933224008</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="B68">
-        <v>-0.297325009009816</v>
+        <v>0.2909845325889426</v>
       </c>
       <c r="C68">
-        <v>-0.008190781570108071</v>
+        <v>-0.08558921939667335</v>
       </c>
       <c r="D68">
-        <v>0.009809808542278579</v>
+        <v>-0.02717630252195226</v>
       </c>
       <c r="E68">
-        <v>-0.03585118326033436</v>
+        <v>0.01600501795327401</v>
       </c>
       <c r="F68">
-        <v>0.01274204202210941</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01630335022251444</v>
+      </c>
+      <c r="G68">
+        <v>-0.03643163822710737</v>
+      </c>
+      <c r="H68">
+        <v>-0.0168195921705145</v>
+      </c>
+      <c r="I68">
+        <v>0.01836002314660661</v>
+      </c>
+      <c r="J68">
+        <v>0.03564322440666282</v>
+      </c>
+      <c r="K68">
+        <v>-0.05030935883951651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B69">
-        <v>-0.01109695711958908</v>
+        <v>0.009810400238770677</v>
       </c>
       <c r="C69">
-        <v>0.04499364780477029</v>
+        <v>0.04238865683435496</v>
       </c>
       <c r="D69">
-        <v>0.04206313641430737</v>
+        <v>0.02430584335624524</v>
       </c>
       <c r="E69">
-        <v>0.03556211783943927</v>
+        <v>-0.01484372981320872</v>
       </c>
       <c r="F69">
-        <v>-0.002719082740299771</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.005706598917715612</v>
+      </c>
+      <c r="G69">
+        <v>-0.001405713789882623</v>
+      </c>
+      <c r="H69">
+        <v>0.01766006131399342</v>
+      </c>
+      <c r="I69">
+        <v>-0.0102018050095868</v>
+      </c>
+      <c r="J69">
+        <v>0.03231519824147214</v>
+      </c>
+      <c r="K69">
+        <v>-0.03673527833540181</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,510 +3147,900 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+      <c r="J70">
+        <v>0</v>
+      </c>
+      <c r="K70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="B71">
-        <v>-0.2861391422241022</v>
+        <v>0.2725293182073038</v>
       </c>
       <c r="C71">
-        <v>-0.03585855718577014</v>
+        <v>-0.08588948699610886</v>
       </c>
       <c r="D71">
-        <v>-0.01058923092557716</v>
+        <v>-0.0214415315007002</v>
       </c>
       <c r="E71">
-        <v>-0.03421411114041725</v>
+        <v>-0.006127083489579476</v>
       </c>
       <c r="F71">
-        <v>0.03680370043406386</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.04616960740385429</v>
+      </c>
+      <c r="G71">
+        <v>-0.04890828455495835</v>
+      </c>
+      <c r="H71">
+        <v>-0.01876373477204278</v>
+      </c>
+      <c r="I71">
+        <v>0.01800132188911453</v>
+      </c>
+      <c r="J71">
+        <v>0.05353681219362486</v>
+      </c>
+      <c r="K71">
+        <v>-0.1087489728021547</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="B72">
-        <v>-0.02081124882704321</v>
+        <v>0.0596362853015162</v>
       </c>
       <c r="C72">
-        <v>0.1318637703959853</v>
+        <v>0.1333270131433741</v>
       </c>
       <c r="D72">
-        <v>0.07264908369333486</v>
+        <v>0.05153324938331257</v>
       </c>
       <c r="E72">
-        <v>0.03892108953386078</v>
+        <v>0.03855865328274497</v>
       </c>
       <c r="F72">
-        <v>0.0107725694249855</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.02206268636082808</v>
+      </c>
+      <c r="G72">
+        <v>0.02623655294252047</v>
+      </c>
+      <c r="H72">
+        <v>-0.02270421577550502</v>
+      </c>
+      <c r="I72">
+        <v>-0.006401479015021688</v>
+      </c>
+      <c r="J72">
+        <v>0.05176313519543924</v>
+      </c>
+      <c r="K72">
+        <v>0.1169358507097427</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="B73">
-        <v>-0.09943042617346226</v>
+        <v>0.1592760483095254</v>
       </c>
       <c r="C73">
-        <v>0.1104165081200789</v>
+        <v>0.184845631989096</v>
       </c>
       <c r="D73">
-        <v>0.1094599790452725</v>
+        <v>0.07033505992272497</v>
       </c>
       <c r="E73">
-        <v>0.2204613855110418</v>
+        <v>0.03361017100212071</v>
       </c>
       <c r="F73">
-        <v>-0.2841784237096481</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.1289835702181735</v>
+      </c>
+      <c r="G73">
+        <v>0.2084600635918709</v>
+      </c>
+      <c r="H73">
+        <v>0.4475886935561463</v>
+      </c>
+      <c r="I73">
+        <v>-0.2210963929795468</v>
+      </c>
+      <c r="J73">
+        <v>-0.1406434166809066</v>
+      </c>
+      <c r="K73">
+        <v>-0.0808889294518651</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="B74">
-        <v>-0.01818200471533336</v>
+        <v>0.04169696547144194</v>
       </c>
       <c r="C74">
-        <v>0.08164901405261747</v>
+        <v>0.09876222079313186</v>
       </c>
       <c r="D74">
-        <v>0.07404984570379852</v>
+        <v>0.04560894317668211</v>
       </c>
       <c r="E74">
-        <v>0.05706478612123485</v>
+        <v>0.02114852775072357</v>
       </c>
       <c r="F74">
-        <v>-0.02608614327323044</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.0058418161978497</v>
+      </c>
+      <c r="G74">
+        <v>0.02994224247547067</v>
+      </c>
+      <c r="H74">
+        <v>-0.01698573647764167</v>
+      </c>
+      <c r="I74">
+        <v>0.0584225720618044</v>
+      </c>
+      <c r="J74">
+        <v>0.01439580585659565</v>
+      </c>
+      <c r="K74">
+        <v>0.01785751535744146</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="B75">
-        <v>-0.03281721319660193</v>
+        <v>0.06872901942575202</v>
       </c>
       <c r="C75">
-        <v>0.1360015537111686</v>
+        <v>0.1639371650076973</v>
       </c>
       <c r="D75">
-        <v>0.05202655231084096</v>
+        <v>0.08942723036467071</v>
       </c>
       <c r="E75">
-        <v>0.1086002171216364</v>
+        <v>0.03175281422830487</v>
       </c>
       <c r="F75">
-        <v>0.01271945846225688</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.02889256027537256</v>
+      </c>
+      <c r="G75">
+        <v>0.09700071865849565</v>
+      </c>
+      <c r="H75">
+        <v>-0.1596521826023626</v>
+      </c>
+      <c r="I75">
+        <v>0.163055680191471</v>
+      </c>
+      <c r="J75">
+        <v>-0.07482373426255624</v>
+      </c>
+      <c r="K75">
+        <v>-0.1615010151565163</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="B76">
-        <v>-0.009418746140358685</v>
+        <v>0.0510370810737051</v>
       </c>
       <c r="C76">
-        <v>0.1003146583394998</v>
+        <v>0.1295327391959557</v>
       </c>
       <c r="D76">
-        <v>0.06567395393247472</v>
+        <v>0.07809041345021325</v>
       </c>
       <c r="E76">
-        <v>0.0869606177568579</v>
+        <v>0.01377444327157769</v>
       </c>
       <c r="F76">
-        <v>-0.02937326505731643</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.05587601893914933</v>
+      </c>
+      <c r="G76">
+        <v>0.06206960240902943</v>
+      </c>
+      <c r="H76">
+        <v>-0.07300208684746345</v>
+      </c>
+      <c r="I76">
+        <v>0.06950706234400401</v>
+      </c>
+      <c r="J76">
+        <v>-0.0697986281319401</v>
+      </c>
+      <c r="K76">
+        <v>0.006871171617806575</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="B77">
-        <v>-0.08382746187349768</v>
+        <v>0.06055052705118524</v>
       </c>
       <c r="C77">
-        <v>0.3425424127894434</v>
+        <v>0.3958963181885644</v>
       </c>
       <c r="D77">
-        <v>-0.8512505889024811</v>
+        <v>-0.9004339492875545</v>
       </c>
       <c r="E77">
-        <v>0.3065154662021671</v>
+        <v>0.03706594657730222</v>
       </c>
       <c r="F77">
-        <v>-0.06666460222525016</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.006753698768580704</v>
+      </c>
+      <c r="G77">
+        <v>0.06373834153119633</v>
+      </c>
+      <c r="H77">
+        <v>-0.09706065645235609</v>
+      </c>
+      <c r="I77">
+        <v>-0.02151595372044384</v>
+      </c>
+      <c r="J77">
+        <v>0.01010462245032372</v>
+      </c>
+      <c r="K77">
+        <v>-0.03041003106880041</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="B78">
-        <v>-0.02285319842510604</v>
+        <v>0.03955706733737093</v>
       </c>
       <c r="C78">
-        <v>0.1329682630002697</v>
+        <v>0.1152145672201732</v>
       </c>
       <c r="D78">
-        <v>0.1326422512417986</v>
+        <v>0.0832722544944086</v>
       </c>
       <c r="E78">
-        <v>-0.08170791630980301</v>
+        <v>-0.03366994359816669</v>
       </c>
       <c r="F78">
-        <v>-0.08458762687305221</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.04103157131989897</v>
+      </c>
+      <c r="G78">
+        <v>-0.01209818218292891</v>
+      </c>
+      <c r="H78">
+        <v>-0.06149278727349353</v>
+      </c>
+      <c r="I78">
+        <v>0.05584453441268226</v>
+      </c>
+      <c r="J78">
+        <v>0.06434151407956441</v>
+      </c>
+      <c r="K78">
+        <v>0.1348474249186078</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="B79">
-        <v>-0.02241469144890051</v>
+        <v>0.05816927967830722</v>
       </c>
       <c r="C79">
-        <v>0.1317568552411612</v>
+        <v>0.1345221355158267</v>
       </c>
       <c r="D79">
-        <v>0.08132698125930882</v>
+        <v>0.06068226409358086</v>
       </c>
       <c r="E79">
-        <v>0.08325100225259237</v>
+        <v>-0.005018641572108574</v>
       </c>
       <c r="F79">
-        <v>-0.009213314348119575</v>
-      </c>
-    </row>
-    <row r="80" spans="1:6">
+        <v>-0.04066377249010629</v>
+      </c>
+      <c r="G79">
+        <v>0.02726288822454236</v>
+      </c>
+      <c r="H79">
+        <v>-0.1343530055686694</v>
+      </c>
+      <c r="I79">
+        <v>0.2108948118990469</v>
+      </c>
+      <c r="J79">
+        <v>-0.01727439389220528</v>
+      </c>
+      <c r="K79">
+        <v>-0.06167446783497228</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="B80">
-        <v>-0.007504163694847766</v>
+        <v>0.0213865874415592</v>
       </c>
       <c r="C80">
-        <v>0.05692234033109501</v>
+        <v>0.0441972972997148</v>
       </c>
       <c r="D80">
-        <v>0.03189085560025676</v>
+        <v>0.03346603735486526</v>
       </c>
       <c r="E80">
-        <v>-0.03196510337212517</v>
+        <v>-0.01847095535061733</v>
       </c>
       <c r="F80">
-        <v>-0.01693508413041741</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.03034098219984859</v>
+      </c>
+      <c r="G80">
+        <v>-0.05708685788745865</v>
+      </c>
+      <c r="H80">
+        <v>0.06214610711220012</v>
+      </c>
+      <c r="I80">
+        <v>-0.05506642483430366</v>
+      </c>
+      <c r="J80">
+        <v>-0.01193507893982072</v>
+      </c>
+      <c r="K80">
+        <v>-0.02067311195094574</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>89</v>
       </c>
       <c r="B81">
-        <v>0.0002861555170820818</v>
+        <v>0.01948990422144808</v>
       </c>
       <c r="C81">
-        <v>0.08518069414647862</v>
+        <v>0.09939428303199629</v>
       </c>
       <c r="D81">
-        <v>0.05210090526401584</v>
+        <v>0.05539191553911396</v>
       </c>
       <c r="E81">
-        <v>0.08368967490243816</v>
+        <v>0.01111342594024972</v>
       </c>
       <c r="F81">
-        <v>-0.01106368204928113</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.03812786348578571</v>
+      </c>
+      <c r="G81">
+        <v>0.02788783221898636</v>
+      </c>
+      <c r="H81">
+        <v>-0.08414195905620178</v>
+      </c>
+      <c r="I81">
+        <v>0.09409756778852851</v>
+      </c>
+      <c r="J81">
+        <v>0.03075100895085688</v>
+      </c>
+      <c r="K81">
+        <v>-0.05544445966918966</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="B82">
-        <v>-0.01650097193868993</v>
+        <v>0.05027983212362131</v>
       </c>
       <c r="C82">
-        <v>0.07633863244029282</v>
+        <v>0.1068796924283742</v>
       </c>
       <c r="D82">
-        <v>0.07067531633491139</v>
+        <v>0.06645137676567657</v>
       </c>
       <c r="E82">
-        <v>0.08557827422716514</v>
+        <v>0.006570537670731822</v>
       </c>
       <c r="F82">
-        <v>-0.03089271530616999</v>
-      </c>
-    </row>
-    <row r="83" spans="1:6">
+        <v>-0.06424307980997698</v>
+      </c>
+      <c r="G82">
+        <v>0.05101776916726191</v>
+      </c>
+      <c r="H82">
+        <v>-0.07496144735666201</v>
+      </c>
+      <c r="I82">
+        <v>0.05312482734515787</v>
+      </c>
+      <c r="J82">
+        <v>-0.04131718242319036</v>
+      </c>
+      <c r="K82">
+        <v>-0.008039534198095779</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>91</v>
       </c>
       <c r="B83">
-        <v>-0.01531307992734726</v>
+        <v>-0.0001977712137716656</v>
       </c>
       <c r="C83">
-        <v>0.002984429815312301</v>
+        <v>-0.02278050012083909</v>
       </c>
       <c r="D83">
-        <v>-0.1486404859121567</v>
+        <v>-0.06043861276002914</v>
       </c>
       <c r="E83">
-        <v>-0.5198856339225493</v>
+        <v>0.01579524914924332</v>
       </c>
       <c r="F83">
-        <v>-0.7295471643713594</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.7529299276076766</v>
+      </c>
+      <c r="G83">
+        <v>-0.5964566907681024</v>
+      </c>
+      <c r="H83">
+        <v>-0.02355700035942931</v>
+      </c>
+      <c r="I83">
+        <v>-0.03054301956203965</v>
+      </c>
+      <c r="J83">
+        <v>-0.1135722522894116</v>
+      </c>
+      <c r="K83">
+        <v>0.07093829396163083</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>92</v>
       </c>
       <c r="B84">
-        <v>0.009362024037965884</v>
+        <v>0.01515255442487467</v>
       </c>
       <c r="C84">
-        <v>0.1022130910306711</v>
+        <v>0.06305191152231236</v>
       </c>
       <c r="D84">
-        <v>0.02083183502658926</v>
+        <v>0.08704424458781172</v>
       </c>
       <c r="E84">
-        <v>-0.05479577712839535</v>
+        <v>-0.2207310764731656</v>
       </c>
       <c r="F84">
-        <v>0.1476596964717191</v>
-      </c>
-    </row>
-    <row r="85" spans="1:6">
+        <v>0.1388387067401952</v>
+      </c>
+      <c r="G84">
+        <v>-0.09219561683884915</v>
+      </c>
+      <c r="H84">
+        <v>-0.4831182220018212</v>
+      </c>
+      <c r="I84">
+        <v>-0.6042507744742507</v>
+      </c>
+      <c r="J84">
+        <v>-0.4608987274994584</v>
+      </c>
+      <c r="K84">
+        <v>-0.1341010847316079</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B85">
-        <v>-0.0015765976670693</v>
+        <v>0.03568439454767611</v>
       </c>
       <c r="C85">
-        <v>0.09314490215062908</v>
+        <v>0.117423041957306</v>
       </c>
       <c r="D85">
-        <v>0.05366297297876275</v>
+        <v>0.08108216834443517</v>
       </c>
       <c r="E85">
-        <v>0.07472829057642619</v>
+        <v>0.01661130153068345</v>
       </c>
       <c r="F85">
-        <v>-0.02291438132103032</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.08010202711582676</v>
+      </c>
+      <c r="G85">
+        <v>0.09379019268686813</v>
+      </c>
+      <c r="H85">
+        <v>-0.1531236740626404</v>
+      </c>
+      <c r="I85">
+        <v>0.1888712538240864</v>
+      </c>
+      <c r="J85">
+        <v>-0.09546608577229895</v>
+      </c>
+      <c r="K85">
+        <v>-0.08616918461635063</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B86">
-        <v>-0.01564113990192408</v>
+        <v>0.01623370691110668</v>
       </c>
       <c r="C86">
-        <v>0.1064873111260976</v>
+        <v>0.07791132588834739</v>
       </c>
       <c r="D86">
-        <v>0.007850219539058368</v>
+        <v>0.03694977743503076</v>
       </c>
       <c r="E86">
-        <v>-0.02541793177735643</v>
+        <v>-0.05348895196813064</v>
       </c>
       <c r="F86">
-        <v>0.03727101742759443</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.03725449700820549</v>
+      </c>
+      <c r="G86">
+        <v>-0.07678183690548158</v>
+      </c>
+      <c r="H86">
+        <v>0.03976903736207478</v>
+      </c>
+      <c r="I86">
+        <v>0.09640512316548278</v>
+      </c>
+      <c r="J86">
+        <v>0.04993203103236854</v>
+      </c>
+      <c r="K86">
+        <v>-0.07241433907891595</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="B87">
-        <v>-0.008438928652169653</v>
+        <v>0.0289722047274743</v>
       </c>
       <c r="C87">
-        <v>0.1637426494584525</v>
+        <v>0.1193768451178595</v>
       </c>
       <c r="D87">
-        <v>0.03558004015637576</v>
+        <v>0.02074746942586743</v>
       </c>
       <c r="E87">
-        <v>-0.07657116919602991</v>
+        <v>0.03787640801156611</v>
       </c>
       <c r="F87">
-        <v>0.05754489010578007</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.01761879796036331</v>
+      </c>
+      <c r="G87">
+        <v>-0.03149157285731402</v>
+      </c>
+      <c r="H87">
+        <v>-0.03040653231817173</v>
+      </c>
+      <c r="I87">
+        <v>-0.008967810146179873</v>
+      </c>
+      <c r="J87">
+        <v>0.0240457579176318</v>
+      </c>
+      <c r="K87">
+        <v>0.08258425375943622</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>96</v>
       </c>
       <c r="B88">
-        <v>-0.008178499626048968</v>
+        <v>0.04088887035833786</v>
       </c>
       <c r="C88">
-        <v>0.03583461740579551</v>
+        <v>0.06070379486910981</v>
       </c>
       <c r="D88">
-        <v>0.04311866465335332</v>
+        <v>0.03661112783107465</v>
       </c>
       <c r="E88">
-        <v>0.04888483353011981</v>
+        <v>0.01519283376351614</v>
       </c>
       <c r="F88">
-        <v>-0.01247937571389576</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.007506112678264797</v>
+      </c>
+      <c r="G88">
+        <v>0.02127820893086305</v>
+      </c>
+      <c r="H88">
+        <v>0.01133817095862914</v>
+      </c>
+      <c r="I88">
+        <v>0.007910452227706481</v>
+      </c>
+      <c r="J88">
+        <v>0.01847436437504549</v>
+      </c>
+      <c r="K88">
+        <v>0.004584990463826434</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
       <c r="B89">
-        <v>-0.4145661333179699</v>
+        <v>0.3886084030989904</v>
       </c>
       <c r="C89">
-        <v>-0.06335252317193862</v>
+        <v>-0.1284319412751171</v>
       </c>
       <c r="D89">
-        <v>0.08174905743814892</v>
+        <v>-0.0331697358347748</v>
       </c>
       <c r="E89">
-        <v>-0.07782710952996832</v>
+        <v>0.03367904987581018</v>
       </c>
       <c r="F89">
-        <v>0.06675651676599013</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.06504171046743512</v>
+      </c>
+      <c r="G89">
+        <v>-0.008081512301388878</v>
+      </c>
+      <c r="H89">
+        <v>-0.07148777659691219</v>
+      </c>
+      <c r="I89">
+        <v>-0.05491762397773974</v>
+      </c>
+      <c r="J89">
+        <v>-0.01463881708474821</v>
+      </c>
+      <c r="K89">
+        <v>0.7216184458022531</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>98</v>
       </c>
       <c r="B90">
-        <v>-0.3052368617695348</v>
+        <v>0.3151266442752939</v>
       </c>
       <c r="C90">
-        <v>-0.01481380681051859</v>
+        <v>-0.08574732393415305</v>
       </c>
       <c r="D90">
-        <v>-0.01376754982459434</v>
+        <v>-0.02163656178604581</v>
       </c>
       <c r="E90">
-        <v>-0.04972432965647004</v>
+        <v>-0.01218816926412583</v>
       </c>
       <c r="F90">
-        <v>-0.0208204353640772</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>0.01140147980495065</v>
+      </c>
+      <c r="G90">
+        <v>-0.02868890054369508</v>
+      </c>
+      <c r="H90">
+        <v>-0.02134233023689019</v>
+      </c>
+      <c r="I90">
+        <v>-0.005180919161416287</v>
+      </c>
+      <c r="J90">
+        <v>0.005184314086642734</v>
+      </c>
+      <c r="K90">
+        <v>-0.09208156947182257</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B91">
-        <v>-0.02731996029676345</v>
+        <v>0.05885105076091288</v>
       </c>
       <c r="C91">
-        <v>0.07394632985972803</v>
+        <v>0.07534941551900132</v>
       </c>
       <c r="D91">
-        <v>0.05704985435691596</v>
+        <v>0.0533228762244511</v>
       </c>
       <c r="E91">
-        <v>0.02946939946167029</v>
+        <v>0.01498414322395166</v>
       </c>
       <c r="F91">
-        <v>-0.04763947112466718</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.0611967708859681</v>
+      </c>
+      <c r="G91">
+        <v>0.01157481232218708</v>
+      </c>
+      <c r="H91">
+        <v>-0.02984066638361841</v>
+      </c>
+      <c r="I91">
+        <v>0.08802341809827689</v>
+      </c>
+      <c r="J91">
+        <v>-0.04314746750511451</v>
+      </c>
+      <c r="K91">
+        <v>-0.02686135099470379</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="B92">
-        <v>-0.3743929731210041</v>
+        <v>0.3488175095648994</v>
       </c>
       <c r="C92">
-        <v>-0.06084485790871509</v>
+        <v>-0.1255164533353728</v>
       </c>
       <c r="D92">
-        <v>-0.01393370091676473</v>
+        <v>-0.04894427835691895</v>
       </c>
       <c r="E92">
-        <v>0.01543279124982152</v>
+        <v>0.01404678895626955</v>
       </c>
       <c r="F92">
-        <v>0.1224183116068413</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.06076976165512069</v>
+      </c>
+      <c r="G92">
+        <v>-0.01423805660979144</v>
+      </c>
+      <c r="H92">
+        <v>-0.0290485091634338</v>
+      </c>
+      <c r="I92">
+        <v>0.005785769760520402</v>
+      </c>
+      <c r="J92">
+        <v>0.06243493991615384</v>
+      </c>
+      <c r="K92">
+        <v>-0.1280061954392328</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B93">
-        <v>-0.3142914858637059</v>
+        <v>0.3052238753171178</v>
       </c>
       <c r="C93">
-        <v>-0.07501651102095619</v>
+        <v>-0.1289602979910987</v>
       </c>
       <c r="D93">
-        <v>-0.001319127442316251</v>
+        <v>-0.008739252763712211</v>
       </c>
       <c r="E93">
-        <v>-0.05225262934483366</v>
+        <v>-0.03126530862070958</v>
       </c>
       <c r="F93">
-        <v>0.02760011821097207</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>0.0316781426957319</v>
+      </c>
+      <c r="G93">
+        <v>-0.04113124956429867</v>
+      </c>
+      <c r="H93">
+        <v>-0.02615543558479799</v>
+      </c>
+      <c r="I93">
+        <v>0.03961561066360807</v>
+      </c>
+      <c r="J93">
+        <v>0.02846603111354029</v>
+      </c>
+      <c r="K93">
+        <v>-0.1273056962536899</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="B94">
-        <v>-0.02382545444923868</v>
+        <v>0.0893414021381322</v>
       </c>
       <c r="C94">
-        <v>0.1986353931531534</v>
+        <v>0.1719690159762019</v>
       </c>
       <c r="D94">
-        <v>0.0800201666714619</v>
+        <v>0.1055852101517097</v>
       </c>
       <c r="E94">
-        <v>0.07428540351108115</v>
+        <v>0.01312923683026494</v>
       </c>
       <c r="F94">
-        <v>0.07828304065709417</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.06712848308345598</v>
+      </c>
+      <c r="G94">
+        <v>0.07127386791195386</v>
+      </c>
+      <c r="H94">
+        <v>-0.2218837335124878</v>
+      </c>
+      <c r="I94">
+        <v>0.406325131210709</v>
+      </c>
+      <c r="J94">
+        <v>-0.2749291493494386</v>
+      </c>
+      <c r="K94">
+        <v>-0.006676844068825172</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="B95">
-        <v>-0.02677093490653436</v>
+        <v>0.04730943398693355</v>
       </c>
       <c r="C95">
-        <v>0.1250124026724982</v>
+        <v>0.137394351874451</v>
       </c>
       <c r="D95">
-        <v>0.07006157551465809</v>
+        <v>0.0689009929600778</v>
       </c>
       <c r="E95">
-        <v>0.1485262377642179</v>
+        <v>0.02242950995869041</v>
       </c>
       <c r="F95">
-        <v>-0.09514945223274721</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.0230192781282772</v>
+      </c>
+      <c r="G95">
+        <v>0.0823347508636319</v>
+      </c>
+      <c r="H95">
+        <v>-0.08666884334995094</v>
+      </c>
+      <c r="I95">
+        <v>-0.07065842476068354</v>
+      </c>
+      <c r="J95">
+        <v>-0.04225568790547872</v>
+      </c>
+      <c r="K95">
+        <v>0.07468401352075096</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,70 +4057,130 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+      <c r="J96">
+        <v>0</v>
+      </c>
+      <c r="K96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="B97">
-        <v>-0.001006788283625547</v>
+        <v>0.02453767251660525</v>
       </c>
       <c r="C97">
-        <v>0.0005238614381003666</v>
+        <v>0.02769299834770102</v>
       </c>
       <c r="D97">
-        <v>0.001282128046412156</v>
+        <v>0.002180197506404808</v>
       </c>
       <c r="E97">
-        <v>0.004738172657344556</v>
+        <v>-0.0453794286764394</v>
       </c>
       <c r="F97">
-        <v>0.002834692695029798</v>
-      </c>
-    </row>
-    <row r="98" spans="1:6">
+        <v>0.01125830467009991</v>
+      </c>
+      <c r="G97">
+        <v>0.02144466973989662</v>
+      </c>
+      <c r="H97">
+        <v>0.004857744133716484</v>
+      </c>
+      <c r="I97">
+        <v>0.009182600515891022</v>
+      </c>
+      <c r="J97">
+        <v>0.03276561448269497</v>
+      </c>
+      <c r="K97">
+        <v>0.06369493718179556</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="B98">
-        <v>-0.09610578606788917</v>
+        <v>0.1406884784430809</v>
       </c>
       <c r="C98">
-        <v>0.1565343338163164</v>
+        <v>0.1577991067182596</v>
       </c>
       <c r="D98">
-        <v>0.1349167834589089</v>
+        <v>0.08183699033160614</v>
       </c>
       <c r="E98">
-        <v>0.1564169003642673</v>
+        <v>0.04989992772690147</v>
       </c>
       <c r="F98">
-        <v>-0.1915710927778168</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1448568102423484</v>
+      </c>
+      <c r="G98">
+        <v>0.1686469114948904</v>
+      </c>
+      <c r="H98">
+        <v>0.3672923926052706</v>
+      </c>
+      <c r="I98">
+        <v>-0.163005868824458</v>
+      </c>
+      <c r="J98">
+        <v>-0.1862117946593289</v>
+      </c>
+      <c r="K98">
+        <v>-0.09954896076861602</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>107</v>
       </c>
       <c r="B99">
-        <v>0</v>
+        <v>0.02445060854021607</v>
       </c>
       <c r="C99">
-        <v>0</v>
+        <v>0.04604870492061126</v>
       </c>
       <c r="D99">
-        <v>0</v>
+        <v>-0.03629115252347554</v>
       </c>
       <c r="E99">
-        <v>0</v>
+        <v>-0.9491649335635296</v>
       </c>
       <c r="F99">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="100" spans="1:6">
+        <v>-0.1090477505515247</v>
+      </c>
+      <c r="G99">
+        <v>0.1054670676446811</v>
+      </c>
+      <c r="H99">
+        <v>0.13132550311349</v>
+      </c>
+      <c r="I99">
+        <v>0.1212797544203646</v>
+      </c>
+      <c r="J99">
+        <v>0.05339217992026064</v>
+      </c>
+      <c r="K99">
+        <v>0.06958052467488725</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,50 +4197,95 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+      <c r="J100">
+        <v>0</v>
+      </c>
+      <c r="K100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="B101">
-        <v>-0.00823933145417592</v>
+        <v>0.01875095252354826</v>
       </c>
       <c r="C101">
-        <v>0.07505835519043413</v>
+        <v>0.08014043069180804</v>
       </c>
       <c r="D101">
-        <v>0.05745261915798514</v>
+        <v>0.04563003973908215</v>
       </c>
       <c r="E101">
-        <v>0.01755610119902147</v>
+        <v>0.009054087483957368</v>
       </c>
       <c r="F101">
-        <v>-0.03381718842150823</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.03831587459531009</v>
+      </c>
+      <c r="G101">
+        <v>-0.02202481912580755</v>
+      </c>
+      <c r="H101">
+        <v>-0.0492389965676874</v>
+      </c>
+      <c r="I101">
+        <v>-0.1654033248382382</v>
+      </c>
+      <c r="J101">
+        <v>0.2490356957617112</v>
+      </c>
+      <c r="K101">
+        <v>-0.04482086324411153</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>110</v>
       </c>
       <c r="B102">
-        <v>-0.0007551776940306921</v>
+        <v>0.0005756764013697025</v>
       </c>
       <c r="C102">
-        <v>0.006038656666346735</v>
+        <v>0.002887020966784187</v>
       </c>
       <c r="D102">
-        <v>0.003125505263516244</v>
+        <v>-0.0002442396497500474</v>
       </c>
       <c r="E102">
-        <v>0.01024014670018933</v>
+        <v>0.001836590096524834</v>
       </c>
       <c r="F102">
-        <v>-0.01150784317003564</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.004763148727203049</v>
+      </c>
+      <c r="G102">
+        <v>0.004113529931306809</v>
+      </c>
+      <c r="H102">
+        <v>-0.001245976330075425</v>
+      </c>
+      <c r="I102">
+        <v>-0.001284602177127438</v>
+      </c>
+      <c r="J102">
+        <v>0.001414933226989893</v>
+      </c>
+      <c r="K102">
+        <v>0.02340765658146285</v>
+      </c>
+    </row>
+    <row r="103" spans="1:11">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>111</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2757,10 +4302,25 @@
       <c r="F103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:6">
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+      <c r="I103">
+        <v>0</v>
+      </c>
+      <c r="J103">
+        <v>0</v>
+      </c>
+      <c r="K103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:11">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +4335,21 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
+        <v>0</v>
+      </c>
+      <c r="J104">
+        <v>0</v>
+      </c>
+      <c r="K104">
         <v>0</v>
       </c>
     </row>
